--- a/placement_management_system/placement_management_system/student_data.xlsx
+++ b/placement_management_system/placement_management_system/student_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>full_name</t>
   </si>
@@ -43,7 +43,19 @@
     <t>19/08/1997</t>
   </si>
   <si>
-    <t>14CEUOG070</t>
+    <t>chirag sanil</t>
+  </si>
+  <si>
+    <t>14CEUOS091</t>
+  </si>
+  <si>
+    <t>CHIRAG</t>
+  </si>
+  <si>
+    <t>SANKET</t>
+  </si>
+  <si>
+    <t>14CEUOG069</t>
   </si>
 </sst>
 </file>
@@ -387,15 +399,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -430,13 +446,33 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>35284</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
